--- a/SSIS/Data/In/ExternalSystem/EmployeeData.xlsx
+++ b/SSIS/Data/In/ExternalSystem/EmployeeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Me\Tech\LK\SqlServer\HRDB\SSIS\Data\In\Peoplesoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Me\Tech\LK\SqlServer\HRDB\hr\SSIS\Data\In\ExternalSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="16">
   <si>
     <t>Emp ID</t>
   </si>
@@ -56,43 +56,22 @@
     <t>Department Code</t>
   </si>
   <si>
-    <t>Department Desc</t>
-  </si>
-  <si>
     <t>Location Code</t>
   </si>
   <si>
-    <t>Location Desc</t>
-  </si>
-  <si>
     <t>Full Name</t>
   </si>
   <si>
     <t>Employment Type Code</t>
   </si>
   <si>
-    <t>Employment Type Desc</t>
-  </si>
-  <si>
-    <t>Full Time Employee</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>San Francisco : Market Street</t>
-  </si>
-  <si>
-    <t>111 Market St, San Francisco 99999</t>
-  </si>
-  <si>
-    <t>222 Home St, HomeTown 11111</t>
-  </si>
-  <si>
     <t>Annual Salary</t>
   </si>
   <si>
-    <t>Annual Salary Start Date</t>
+    <t>111 Market St&lt;comma&gt; San Francisco 99999</t>
+  </si>
+  <si>
+    <t>222 Home St&lt;comma&gt; HomeTown 11111</t>
   </si>
 </sst>
 </file>
@@ -420,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,68 +410,51 @@
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" customWidth="1"/>
-    <col min="9" max="10" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="6" max="7" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>5000+ROW()-1</f>
         <v>5001</v>
@@ -505,39 +467,26 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K2">
         <f>100000+A2</f>
         <v>105001</v>
       </c>
-      <c r="O2" s="2">
-        <f>K2</f>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A21" si="0">5000+ROW()-1</f>
         <v>5002</v>
@@ -550,39 +499,26 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N21" si="2">100000+A3</f>
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K21" si="2">100000+A3</f>
         <v>105002</v>
       </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O21" si="3">K3</f>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>5003</v>
@@ -595,39 +531,26 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="2"/>
         <v>105003</v>
       </c>
-      <c r="O4" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5004</v>
@@ -640,39 +563,26 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="2"/>
         <v>105004</v>
       </c>
-      <c r="O5" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5005</v>
@@ -685,39 +595,26 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N6">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="2"/>
         <v>105005</v>
       </c>
-      <c r="O6" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5006</v>
@@ -730,39 +627,26 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
         <v>105006</v>
       </c>
-      <c r="O7" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5007</v>
@@ -775,39 +659,26 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N8">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="2"/>
         <v>105007</v>
       </c>
-      <c r="O8" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5008</v>
@@ -820,39 +691,26 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
         <v>105008</v>
       </c>
-      <c r="O9" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>5009</v>
@@ -865,39 +723,26 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="2"/>
         <v>105009</v>
       </c>
-      <c r="O10" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>5010</v>
@@ -910,39 +755,26 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N11">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="2"/>
         <v>105010</v>
       </c>
-      <c r="O11" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>5011</v>
@@ -955,39 +787,26 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="2"/>
         <v>105011</v>
       </c>
-      <c r="O12" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>5012</v>
@@ -1000,39 +819,26 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="2"/>
         <v>105012</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>5013</v>
@@ -1045,39 +851,26 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N14">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="2"/>
         <v>105013</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>5014</v>
@@ -1090,39 +883,26 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="2"/>
         <v>105014</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>5015</v>
@@ -1135,39 +915,26 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="2"/>
         <v>105015</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>5016</v>
@@ -1180,39 +947,26 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="2"/>
         <v>105016</v>
       </c>
-      <c r="O17" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>5017</v>
@@ -1225,39 +979,26 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="2"/>
         <v>105017</v>
       </c>
-      <c r="O18" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>5018</v>
@@ -1270,39 +1011,26 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="2"/>
         <v>105018</v>
       </c>
-      <c r="O19" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>5019</v>
@@ -1315,39 +1043,26 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="2"/>
         <v>105019</v>
       </c>
-      <c r="O20" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>5020</v>
@@ -1360,36 +1075,23 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2">
-        <v>43831</v>
-      </c>
-      <c r="N21">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2">
+        <v>43831</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="2"/>
         <v>105020</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="3"/>
-        <v>43831</v>
       </c>
     </row>
   </sheetData>
